--- a/功能及url统计.xlsx
+++ b/功能及url统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
   <si>
     <r>
       <rPr>
@@ -323,10 +323,72 @@
     <t>数据表操作</t>
   </si>
   <si>
-    <t>普通用户操作</t>
-  </si>
-  <si>
-    <t>子用户操作</t>
+    <t>用户操作</t>
+  </si>
+  <si>
+    <t>获取种兔基本信息</t>
+  </si>
+  <si>
+    <t>/{dbName}/getAllRabbitInfo</t>
+  </si>
+  <si>
+    <t>page:int,    //页数
+limit:int,    // 每页显示的个数
+dbName:string(path)   //数据库名称，也就是用户名</t>
+  </si>
+  <si>
+    <t>返回值太多了，是一个用于分页的对象，我这里就不写了，你调用一下看一下就行了</t>
+  </si>
+  <si>
+    <t>2020.1.2</t>
+  </si>
+  <si>
+    <t>添加种兔基本信息</t>
+  </si>
+  <si>
+    <t>/{dbName}/insertRabbitInfo</t>
+  </si>
+  <si>
+    <t>dbName:string(path)    //这个在路径里传
+[         //这个在body里传
+ {
+  "rabbitNo": "insertTest612",
+     "cageNo": "123",
+     "birthParity": 111111,
+     "initialWeight": 20.0,
+     "coatGloss": "lqcccc",
+     "rabbitHouseNo": null,
+     "identicalRabbits": null,
+     "economiType": null,
+     "sex": null,
+     "initialAge": null,
+     "fineHairType": null,
+     "origin": null,
+     "mainCoatColor": null,
+     "paternalNo": null,
+     "coatFeature": null,
+     "maternalNo": null,
+     "roughType": null,
+     "age": null,
+     "coatColor": null,
+     "bornDate": null,
+     "nipplesNumber": null,
+     "photo": null
+ }
+]</t>
+  </si>
+  <si>
+    <t>删除种兔基本信息</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>/{dbName}/deleteRabbitInfo</t>
+  </si>
+  <si>
+    <t>dbName:string(path)
+[rabbitNo:string] (body)  //需要删除的rabbitNo列表</t>
   </si>
 </sst>
 </file>
@@ -334,8 +396,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -381,6 +443,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -388,8 +451,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,21 +563,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -434,20 +579,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -456,75 +587,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -541,25 +603,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,157 +765,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,48 +794,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -818,6 +838,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -832,6 +885,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -840,10 +902,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,137 +914,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1019,17 +1081,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1350,10 +1409,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1494,7 +1553,7 @@
       <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1524,7 +1583,7 @@
       <c r="I6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1684,7 +1743,7 @@
       <c r="I15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="12" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1804,7 +1863,7 @@
       <c r="E20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G20" s="8" t="s">
@@ -1829,7 +1888,7 @@
       <c r="E21" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G21" s="8" t="s">
@@ -1856,7 +1915,7 @@
       <c r="F22" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="12" t="s">
         <v>71</v>
       </c>
       <c r="H22" t="s">
@@ -1866,17 +1925,79 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" ht="40.5" spans="1:9">
       <c r="A27" t="s">
         <v>72</v>
       </c>
       <c r="B27" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
+      <c r="C27" t="s">
         <v>74</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" ht="378" spans="3:9">
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" ht="57" spans="3:9">
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>78</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/功能及url统计.xlsx
+++ b/功能及url统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="97">
   <si>
     <r>
       <rPr>
@@ -390,6 +390,41 @@
     <t>dbName:string(path)
 [rabbitNo:string] (body)  //需要删除的rabbitNo列表</t>
   </si>
+  <si>
+    <t>获取母兔信息</t>
+  </si>
+  <si>
+    <t>/{dbName}/getFamaleRabbitInfo</t>
+  </si>
+  <si>
+    <t>dbName:string(path)
+limit:string,
+page:string</t>
+  </si>
+  <si>
+    <t>PageInfo对象</t>
+  </si>
+  <si>
+    <t>2020.1.3</t>
+  </si>
+  <si>
+    <t>获取公兔信息</t>
+  </si>
+  <si>
+    <t>/{dbName}/getMaleRabbitInfo</t>
+  </si>
+  <si>
+    <t>获取仔兔信息</t>
+  </si>
+  <si>
+    <t>/{dbName}/getLittleRabbitInfo</t>
+  </si>
+  <si>
+    <t>添加饲料信息</t>
+  </si>
+  <si>
+    <t>/{dbName}/addFeedInfo</t>
+  </si>
 </sst>
 </file>
 
@@ -397,9 +432,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -440,6 +475,20 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,6 +500,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -460,122 +607,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -603,55 +638,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,127 +812,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,6 +829,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -823,6 +867,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -833,6 +886,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -852,48 +929,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -902,10 +937,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -914,133 +949,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1409,10 +1444,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1941,10 +1976,10 @@
       <c r="E27" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="12" t="s">
         <v>77</v>
       </c>
       <c r="H27" t="s">
@@ -1964,7 +1999,7 @@
       <c r="E28" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="12" t="s">
         <v>81</v>
       </c>
       <c r="G28" s="8" t="s">
@@ -1987,7 +2022,7 @@
       <c r="E29" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="12" t="s">
         <v>85</v>
       </c>
       <c r="G29" s="8" t="s">
@@ -1998,6 +2033,86 @@
       </c>
       <c r="I29" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="30" ht="40.5" spans="3:9">
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" ht="40.5" spans="3:9">
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" ht="40.5" spans="3:9">
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/功能及url统计.xlsx
+++ b/功能及url统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
   <si>
     <r>
       <rPr>
@@ -425,6 +425,28 @@
   <si>
     <t>/{dbName}/addFeedInfo</t>
   </si>
+  <si>
+    <t>[
+ {
+  "feedType":"string",
+  "ingredientDates":"yyyy-mm-dd hh:mm:ss",
+  "ingredientNumber":"int",
+  "remark":"string"
+ }
+]</t>
+  </si>
+  <si>
+    <t>2020.1.13</t>
+  </si>
+  <si>
+    <t>查询所有饲料信息</t>
+  </si>
+  <si>
+    <t>按照饲料名称查询</t>
+  </si>
+  <si>
+    <t>删除饲料信息</t>
+  </si>
 </sst>
 </file>
 
@@ -432,9 +454,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -479,14 +501,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,46 +576,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,59 +637,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -614,14 +644,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -638,18 +660,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -662,19 +804,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,139 +816,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,11 +865,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -871,7 +917,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -886,30 +932,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -937,10 +959,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -949,133 +971,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1444,10 +1466,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2045,7 +2067,7 @@
       <c r="E30" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="12" t="s">
         <v>88</v>
       </c>
       <c r="G30" t="s">
@@ -2068,7 +2090,7 @@
       <c r="E31" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="12" t="s">
         <v>88</v>
       </c>
       <c r="G31" t="s">
@@ -2091,7 +2113,7 @@
       <c r="E32" t="s">
         <v>94</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="12" t="s">
         <v>88</v>
       </c>
       <c r="G32" t="s">
@@ -2104,7 +2126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="3:5">
+    <row r="33" ht="108" spans="3:9">
       <c r="C33" t="s">
         <v>95</v>
       </c>
@@ -2113,6 +2135,42 @@
       </c>
       <c r="E33" t="s">
         <v>96</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
+        <v>98</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/功能及url统计.xlsx
+++ b/功能及url统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="109">
   <si>
     <r>
       <rPr>
@@ -442,10 +442,37 @@
     <t>查询所有饲料信息</t>
   </si>
   <si>
+    <t>/{dbName}/getAllFeedInfo</t>
+  </si>
+  <si>
+    <t>limit:int,
+page:int,
+dbName:string(path)</t>
+  </si>
+  <si>
+    <t>pageInfo对象</t>
+  </si>
+  <si>
     <t>按照饲料名称查询</t>
   </si>
   <si>
+    <t>/{dbName}/getFeedInfoByName</t>
+  </si>
+  <si>
+    <t>limit:int,
+page:int,
+feedType:string,
+dbName:string(path)</t>
+  </si>
+  <si>
     <t>删除饲料信息</t>
+  </si>
+  <si>
+    <t>/{dbName}/deleteFeedById</t>
+  </si>
+  <si>
+    <t>deleteId:list
+dbName:string(path)</t>
   </si>
 </sst>
 </file>
@@ -1468,8 +1495,8 @@
   <sheetPr/>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2149,28 +2176,73 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="3:4">
+    <row r="34" ht="40.5" spans="3:9">
       <c r="C34" t="s">
         <v>99</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="3:4">
+      <c r="E34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" ht="54" spans="3:9">
       <c r="C35" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="3:4">
+      <c r="E35" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" ht="57" spans="3:9">
       <c r="C36" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
         <v>83</v>
+      </c>
+      <c r="E36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/功能及url统计.xlsx
+++ b/功能及url统计.xlsx
@@ -157,7 +157,7 @@
     subUsername:string, //子用户用户名,
     subPassword:string, //密码,
     parentUser:string // 父类用户名,
-    permissions:[string]  //权限
+    permissions:string  //逗号分隔，权限列表
 }，
 normalUsername:string(path)  //执行此操作的普通用户名</t>
   </si>
@@ -181,7 +181,7 @@
     <t>/{normalUsername}/normal/updateSubPermissions</t>
   </si>
   <si>
-    <t>permissions:[string],  // 权限列表
+    <t>permissions:string,  // 逗号分隔，权限列表
 subUsername:string,  //子用户名
 normalUsername:string  //普通用户名</t>
   </si>
@@ -329,7 +329,7 @@
     <t>获取种兔基本信息</t>
   </si>
   <si>
-    <t>/{dbName}/getAllRabbitInfo</t>
+    <t>/{dbName}/{username}/getAllRabbitInfo</t>
   </si>
   <si>
     <t>page:int,    //页数
@@ -346,7 +346,7 @@
     <t>添加种兔基本信息</t>
   </si>
   <si>
-    <t>/{dbName}/insertRabbitInfo</t>
+    <t>/{dbName}/{username}/insertRabbitInfo</t>
   </si>
   <si>
     <t>dbName:string(path)    //这个在路径里传
@@ -384,7 +384,7 @@
     <t>delete</t>
   </si>
   <si>
-    <t>/{dbName}/deleteRabbitInfo</t>
+    <t>/{dbName}/{username}/deleteRabbitInfo</t>
   </si>
   <si>
     <t>dbName:string(path)
@@ -394,7 +394,7 @@
     <t>获取母兔信息</t>
   </si>
   <si>
-    <t>/{dbName}/getFamaleRabbitInfo</t>
+    <t>/{dbName}/{username}/getFamaleRabbitInfo</t>
   </si>
   <si>
     <t>dbName:string(path)
@@ -411,19 +411,19 @@
     <t>获取公兔信息</t>
   </si>
   <si>
-    <t>/{dbName}/getMaleRabbitInfo</t>
+    <t>/{dbName}/{username}/getMaleRabbitInfo</t>
   </si>
   <si>
     <t>获取仔兔信息</t>
   </si>
   <si>
-    <t>/{dbName}/getLittleRabbitInfo</t>
+    <t>/{dbName}/{username}/getLittleRabbitInfo</t>
   </si>
   <si>
     <t>添加饲料信息</t>
   </si>
   <si>
-    <t>/{dbName}/addFeedInfo</t>
+    <t>/{dbName}/{username}/addFeedInfo</t>
   </si>
   <si>
     <t>[
@@ -442,7 +442,7 @@
     <t>查询所有饲料信息</t>
   </si>
   <si>
-    <t>/{dbName}/getAllFeedInfo</t>
+    <t>/{dbName}/{username}/getAllFeedInfo</t>
   </si>
   <si>
     <t>limit:int,
@@ -456,7 +456,7 @@
     <t>按照饲料名称查询</t>
   </si>
   <si>
-    <t>/{dbName}/getFeedInfoByName</t>
+    <t>/{dbName}/{username}/getFeedInfoByName</t>
   </si>
   <si>
     <t>limit:int,
@@ -468,7 +468,7 @@
     <t>删除饲料信息</t>
   </si>
   <si>
-    <t>/{dbName}/deleteFeedById</t>
+    <t>/{dbName}/{username}/deleteFeedById</t>
   </si>
   <si>
     <t>deleteId:list
@@ -481,9 +481,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -528,14 +528,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,14 +603,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,74 +664,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -687,187 +687,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,35 +878,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -925,6 +896,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -936,6 +918,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -964,6 +955,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -986,10 +986,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -998,137 +998,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1164,9 +1164,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1495,8 +1492,8 @@
   <sheetPr/>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1528,7 +1525,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="14"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" ht="22.5" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -2163,7 +2160,7 @@
       <c r="E33" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12" t="s">
         <v>97</v>
       </c>
       <c r="G33" s="8" t="s">
@@ -2186,7 +2183,7 @@
       <c r="E34" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="12" t="s">
         <v>101</v>
       </c>
       <c r="G34" t="s">
@@ -2209,7 +2206,7 @@
       <c r="E35" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="12" t="s">
         <v>105</v>
       </c>
       <c r="G35" t="s">
@@ -2232,7 +2229,7 @@
       <c r="E36" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="12" t="s">
         <v>108</v>
       </c>
       <c r="G36" s="8" t="s">

--- a/功能及url统计.xlsx
+++ b/功能及url统计.xlsx
@@ -17,13 +17,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="109">
   <si>
     <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">功能分类统计    </t>
     </r>
     <r>
@@ -34,7 +27,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">服务器ip:116.62.150.116 </t>
+      <t>服务器ip:116.62.150.116   部分在线文档访问:116.62.150.116:8412/swagger-ui.html#/</t>
     </r>
   </si>
   <si>
@@ -320,7 +313,8 @@
 }</t>
   </si>
   <si>
-    <t>数据表操作</t>
+    <t>数据表操作
+端口：8412</t>
   </si>
   <si>
     <t>用户操作</t>
@@ -329,7 +323,7 @@
     <t>获取种兔基本信息</t>
   </si>
   <si>
-    <t>/{dbName}/{username}/getAllRabbitInfo</t>
+    <t>/{dbName}/{username}/actions/getAllRabbitInfo</t>
   </si>
   <si>
     <t>page:int,    //页数
@@ -346,7 +340,7 @@
     <t>添加种兔基本信息</t>
   </si>
   <si>
-    <t>/{dbName}/{username}/insertRabbitInfo</t>
+    <t>/{dbName}/{username}/actions/insertRabbitInfo</t>
   </si>
   <si>
     <t>dbName:string(path)    //这个在路径里传
@@ -384,7 +378,7 @@
     <t>delete</t>
   </si>
   <si>
-    <t>/{dbName}/{username}/deleteRabbitInfo</t>
+    <t>/{dbName}/{username}/actions/deleteRabbitInfo</t>
   </si>
   <si>
     <t>dbName:string(path)
@@ -394,7 +388,7 @@
     <t>获取母兔信息</t>
   </si>
   <si>
-    <t>/{dbName}/{username}/getFamaleRabbitInfo</t>
+    <t>/{dbName}/{username}/actions/getFamaleRabbitInfo</t>
   </si>
   <si>
     <t>dbName:string(path)
@@ -411,19 +405,19 @@
     <t>获取公兔信息</t>
   </si>
   <si>
-    <t>/{dbName}/{username}/getMaleRabbitInfo</t>
+    <t>/{dbName}/{username}/actions/getMaleRabbitInfo</t>
   </si>
   <si>
     <t>获取仔兔信息</t>
   </si>
   <si>
-    <t>/{dbName}/{username}/getLittleRabbitInfo</t>
+    <t>/{dbName}/{username}/actions/getLittleRabbitInfo</t>
   </si>
   <si>
     <t>添加饲料信息</t>
   </si>
   <si>
-    <t>/{dbName}/{username}/addFeedInfo</t>
+    <t>/{dbName}/{username}/actions/addFeedInfo</t>
   </si>
   <si>
     <t>[
@@ -442,7 +436,7 @@
     <t>查询所有饲料信息</t>
   </si>
   <si>
-    <t>/{dbName}/{username}/getAllFeedInfo</t>
+    <t>/{dbName}/{username}/actions/getAllFeedInfo</t>
   </si>
   <si>
     <t>limit:int,
@@ -456,7 +450,7 @@
     <t>按照饲料名称查询</t>
   </si>
   <si>
-    <t>/{dbName}/{username}/getFeedInfoByName</t>
+    <t>/{dbName}/{username}/actions/getFeedInfoByName</t>
   </si>
   <si>
     <t>limit:int,
@@ -468,7 +462,7 @@
     <t>删除饲料信息</t>
   </si>
   <si>
-    <t>/{dbName}/{username}/deleteFeedById</t>
+    <t>/{dbName}/{username}/actions/deleteFeedById</t>
   </si>
   <si>
     <t>deleteId:list
@@ -480,9 +474,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -528,14 +522,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,6 +552,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -556,6 +573,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,89 +649,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -663,14 +665,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -687,187 +681,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,6 +872,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -898,44 +931,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,27 +955,23 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -986,149 +980,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1167,6 +1161,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1492,8 +1492,8 @@
   <sheetPr/>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1525,7 +1525,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="13"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" ht="22.5" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -2006,239 +2006,248 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" ht="40.5" spans="1:9">
-      <c r="A27" t="s">
+    <row r="27" ht="56.25" spans="1:9">
+      <c r="A27" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" ht="378" spans="3:9">
-      <c r="C28" t="s">
+      <c r="I27" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" ht="409.5" spans="2:9">
+      <c r="B28" s="14"/>
+      <c r="C28" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" ht="57" spans="3:9">
-      <c r="C29" t="s">
+      <c r="I28" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" ht="75" spans="2:9">
+      <c r="B29" s="14"/>
+      <c r="C29" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" ht="40.5" spans="3:9">
-      <c r="C30" t="s">
+      <c r="I29" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" ht="56.25" spans="2:9">
+      <c r="B30" s="14"/>
+      <c r="C30" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" ht="40.5" spans="3:9">
-      <c r="C31" t="s">
+      <c r="I30" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" ht="56.25" spans="2:9">
+      <c r="B31" s="14"/>
+      <c r="C31" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" ht="40.5" spans="3:9">
-      <c r="C32" t="s">
+      <c r="I31" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" ht="56.25" spans="2:9">
+      <c r="B32" s="14"/>
+      <c r="C32" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" ht="108" spans="3:9">
-      <c r="C33" t="s">
+      <c r="I32" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" ht="150" spans="2:9">
+      <c r="B33" s="14"/>
+      <c r="C33" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" ht="40.5" spans="3:9">
-      <c r="C34" t="s">
+      <c r="I33" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" ht="56.25" spans="2:9">
+      <c r="B34" s="14"/>
+      <c r="C34" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" ht="54" spans="3:9">
-      <c r="C35" t="s">
+      <c r="I34" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" ht="75" spans="2:9">
+      <c r="B35" s="14"/>
+      <c r="C35" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" ht="57" spans="3:9">
-      <c r="C36" t="s">
+      <c r="I35" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" ht="75" spans="2:9">
+      <c r="B36" s="14"/>
+      <c r="C36" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="5" t="s">
         <v>17</v>
       </c>
     </row>

--- a/功能及url统计.xlsx
+++ b/功能及url统计.xlsx
@@ -27,7 +27,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>服务器ip:116.62.150.116   部分在线文档访问:116.62.150.116:8412/swagger-ui.html#/</t>
+      <t>服务器ip:116.62.150.116     端口调用统一url:http://116.62.150.116:11234      部分在线文档访问:116.62.150.116:8412/swagger-ui.html#/</t>
     </r>
   </si>
   <si>
@@ -58,27 +58,8 @@
     <t>是否测试过</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">用户功能类
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>端口：8300</t>
-    </r>
+    <t>用户功能类
+请求前缀:/account</t>
   </si>
   <si>
     <t>普通用户登录</t>
@@ -314,7 +295,7 @@
   </si>
   <si>
     <t>数据表操作
-端口：8412</t>
+请求前缀：/actions</t>
   </si>
   <si>
     <t>用户操作</t>
@@ -474,12 +455,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,13 +499,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -544,6 +518,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -551,7 +563,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,22 +578,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,21 +594,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -617,30 +607,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,10 +631,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -681,37 +655,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,145 +823,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,21 +888,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -972,6 +931,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -980,10 +954,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -992,137 +966,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1161,12 +1135,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1492,13 +1460,13 @@
   <sheetPr/>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="24.4083333333333" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
     <col min="3" max="3" width="27.125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
@@ -1525,7 +1493,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="15"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" ht="22.5" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -2006,8 +1974,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" ht="56.25" spans="1:9">
-      <c r="A27" s="13" t="s">
+    <row r="27" ht="75" spans="1:9">
+      <c r="A27" s="7" t="s">
         <v>72</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -2036,7 +2004,7 @@
       </c>
     </row>
     <row r="28" ht="409.5" spans="2:9">
-      <c r="B28" s="14"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
         <v>79</v>
       </c>
@@ -2060,7 +2028,7 @@
       </c>
     </row>
     <row r="29" ht="75" spans="2:9">
-      <c r="B29" s="14"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
         <v>82</v>
       </c>
@@ -2084,7 +2052,7 @@
       </c>
     </row>
     <row r="30" ht="56.25" spans="2:9">
-      <c r="B30" s="14"/>
+      <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
         <v>86</v>
       </c>
@@ -2108,7 +2076,7 @@
       </c>
     </row>
     <row r="31" ht="56.25" spans="2:9">
-      <c r="B31" s="14"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
         <v>91</v>
       </c>
@@ -2132,7 +2100,7 @@
       </c>
     </row>
     <row r="32" ht="56.25" spans="2:9">
-      <c r="B32" s="14"/>
+      <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
         <v>93</v>
       </c>
@@ -2156,7 +2124,7 @@
       </c>
     </row>
     <row r="33" ht="150" spans="2:9">
-      <c r="B33" s="14"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
         <v>95</v>
       </c>
@@ -2180,7 +2148,7 @@
       </c>
     </row>
     <row r="34" ht="56.25" spans="2:9">
-      <c r="B34" s="14"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
         <v>99</v>
       </c>
@@ -2204,7 +2172,7 @@
       </c>
     </row>
     <row r="35" ht="75" spans="2:9">
-      <c r="B35" s="14"/>
+      <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
         <v>103</v>
       </c>
@@ -2228,7 +2196,7 @@
       </c>
     </row>
     <row r="36" ht="75" spans="2:9">
-      <c r="B36" s="14"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
         <v>106</v>
       </c>

--- a/功能及url统计.xlsx
+++ b/功能及url统计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="130">
   <si>
     <r>
       <t xml:space="preserve">功能分类统计    </t>
@@ -449,18 +449,140 @@
     <t>deleteId:list
 dbName:string(path)</t>
   </si>
+  <si>
+    <t>查询所有繁殖信息</t>
+  </si>
+  <si>
+    <t>/{dbName}/{username}/selectAllBreedingInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limit:int,   //每页显示的个数
+page:int,     //当前页数
+</t>
+  </si>
+  <si>
+    <t>{
+  "data": {
+    "endRow": 0,
+    "firstPage": 0,
+    "hasNextPage": true,
+    "hasPreviousPage": true,
+    "isFirstPage": true,
+    "isLastPage": true,
+    "lastPage": 0,
+    "list": [
+      {
+        "birthTime": "2020-01-17T02:19:14.523Z",
+        "breedingInformationId": 0,
+        "breedingTime": "2020-01-17T02:19:14.523Z",
+        "deathRabbitRate": 0,
+        "femaleRabbitNo": "string",
+        "lactationAverageDailyGain": 0,
+        "lactationAverageMaterialWeightRatio": 0,
+        "lactationConsumption": 0,
+        "maleRabbitNo": "string",
+        "nestDeathRabbitRate": 0,
+        "nestLittersNumber": 0,
+        "nestLiveRabbitsNumber": 0,
+        "nestLiveRabbitsRate": 0,
+        "nestWeakDeadRabbitsNumber": 0,
+        "nestWeakDeadRabbitsRate": 0,
+        "nestWeakRabbitsNumber": 0,
+        "nestWeakRabbitsRate": 0,
+        "newbornAverageWeight": 0,
+        "newbornNestWeight": 0,
+        "sucklingRabbitsNumber": 0,
+        "tiresNumber": "string",
+        "twelveDayMoldTire": "string",
+        "twentyOneDaysOldNestWeight": 0,
+        "weaningNestWeight": 0
+      }
+    ],
+    "navigateFirstPage": 0,
+    "navigateLastPage": 0,
+    "navigatePages": 0,
+    "navigatepageNums": [
+      0
+    ],
+    "nextPage": 0,
+    "pageNum": 0,
+    "pageSize": 0,
+    "pages": 0,
+    "prePage": 0,
+    "size": 0,
+    "startRow": 0,
+    "total": 0
+  },
+  "message": "string"
+}</t>
+  </si>
+  <si>
+    <t>根据母兔信息查询繁殖信息</t>
+  </si>
+  <si>
+    <t>/{dbName}/{username}/selectBreedingByFemaleRabbitNo</t>
+  </si>
+  <si>
+    <t>limit:int,
+page:int,
+femaleRabbitNo:string</t>
+  </si>
+  <si>
+    <t>根据公兔查询繁殖信息</t>
+  </si>
+  <si>
+    <t>/{dbName}/{username}/selectBreedingByMaleRabbitNo</t>
+  </si>
+  <si>
+    <t>limit:int,
+page:int,
+maleRabbitNo:string</t>
+  </si>
+  <si>
+    <t>根据公兔删除繁殖信息</t>
+  </si>
+  <si>
+    <t>/{dbName}/{username}/deleteBreedingRecordByMaleRabbit</t>
+  </si>
+  <si>
+    <t>maleId:string     //公兔id</t>
+  </si>
+  <si>
+    <t>根据id删除繁殖信息</t>
+  </si>
+  <si>
+    <t>/{dbName}/{username}/deleteBreedingRecordById</t>
+  </si>
+  <si>
+    <t>id:List&lt;String&gt;   //待删除的id</t>
+  </si>
+  <si>
+    <t>根据母兔删除繁殖信息</t>
+  </si>
+  <si>
+    <t>/{dbName}/{username}/deleteBreedingRecordByFemaleRabbit</t>
+  </si>
+  <si>
+    <t>femaleId:string    //母兔id</t>
+  </si>
+  <si>
+    <t>插入繁殖信息</t>
+  </si>
+  <si>
+    <t>/{dbName}/{username}/insertBreedingInfo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,6 +617,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF3B4151"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -503,7 +637,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,14 +666,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,14 +757,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -556,52 +766,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,37 +779,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -655,187 +789,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,15 +1022,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -914,20 +1039,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,6 +1060,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -954,10 +1088,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -966,137 +1100,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1136,7 +1270,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1458,19 +1601,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C39" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.4083333333333" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
+    <col min="3" max="3" width="30.2916666666667" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="63.25" customWidth="1"/>
+    <col min="5" max="5" width="83.6666666666667" customWidth="1"/>
     <col min="6" max="6" width="64.1166666666667" customWidth="1"/>
     <col min="7" max="7" width="62.75" customWidth="1"/>
     <col min="8" max="8" width="14.625" customWidth="1"/>
@@ -1493,7 +1636,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="13"/>
+      <c r="M1" s="16"/>
     </row>
     <row r="2" ht="22.5" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -2219,6 +2362,110 @@
         <v>17</v>
       </c>
     </row>
+    <row r="37" ht="409.5" spans="3:7">
+      <c r="C37" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" ht="409.5" spans="3:7">
+      <c r="C38" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" ht="409.5" spans="3:7">
+      <c r="C39" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" ht="18.75" spans="3:6">
+      <c r="C40" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" ht="18.75" spans="3:6">
+      <c r="C41" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" ht="18.75" spans="3:6">
+      <c r="C42" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" ht="18.75" spans="3:5">
+      <c r="C43" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:G1"/>
@@ -2229,6 +2476,14 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B20:B22"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E42" r:id="rId1" display="/{dbName}/{username}/deleteBreedingRecordByFemaleRabbit"/>
+    <hyperlink ref="E41" r:id="rId1" display="/{dbName}/{username}/deleteBreedingRecordById"/>
+    <hyperlink ref="E40" r:id="rId1" display="/{dbName}/{username}/deleteBreedingRecordByMaleRabbit"/>
+    <hyperlink ref="E43" r:id="rId1" display="/{dbName}/{username}/insertBreedingInfo"/>
+    <hyperlink ref="E37" r:id="rId1" display="/{dbName}/{username}/selectAllBreedingInfo"/>
+    <hyperlink ref="E39" r:id="rId1" display="/{dbName}/{username}/selectBreedingByMaleRabbitNo"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
